--- a/case_study/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
+++ b/case_study/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C_Document\module_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaFullstack\Module 3\C0723L1_JV105_Module3\case_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B604BFB-96BC-4012-A446-05FBCA974D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFC566A-7EC6-4F0C-9A04-A0E5D9BF328A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" tabRatio="816" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="816" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" state="hidden" r:id="rId1"/>
@@ -32,6 +32,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1579,7 +1590,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1590,10 +1603,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="str">
-        <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>loai_dich_vu</v>
-      </c>
+      <c r="B2" s="5"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -1641,7 +1651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1662,10 +1674,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="str">
-        <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>dich_vu</v>
-      </c>
+      <c r="B2" s="5"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -1951,7 +1960,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1964,10 +1975,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="str">
-        <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>dich_vu_di_kem</v>
-      </c>
+      <c r="B2" s="5"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -2105,7 +2113,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B2:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2121,10 +2131,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="str">
-        <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>hop_dong</v>
-      </c>
+      <c r="B2" s="5"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -2448,7 +2455,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2461,10 +2470,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="str">
-        <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>hop_dong_chi_tiet</v>
-      </c>
+      <c r="B2" s="5"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -2614,7 +2620,7 @@
   </sheetPr>
   <dimension ref="B2:I197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
@@ -4490,7 +4496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4501,10 +4509,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="str">
-        <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>vi_tri</v>
-      </c>
+      <c r="B2" s="5"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -4544,7 +4549,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4555,10 +4562,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="str">
-        <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>trinh_do</v>
-      </c>
+      <c r="B2" s="5"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -4616,7 +4620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4627,10 +4633,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="str">
-        <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>bo_phan</v>
-      </c>
+      <c r="B2" s="5"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -4688,7 +4691,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4708,10 +4713,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="str">
-        <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>nhan_vien</v>
-      </c>
+      <c r="B2" s="5"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -5132,7 +5134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5143,10 +5147,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="str">
-        <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>loai_khach</v>
-      </c>
+      <c r="B2" s="5"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -5213,7 +5214,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5231,10 +5234,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="str">
-        <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>khach_hang</v>
-      </c>
+      <c r="B2" s="5"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -5589,7 +5589,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5601,10 +5603,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="str">
-        <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>kieu_thue</v>
-      </c>
+      <c r="B2" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">

--- a/case_study/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
+++ b/case_study/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaFullstack\Module 3\C0723L1_JV105_Module3\case_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFC566A-7EC6-4F0C-9A04-A0E5D9BF328A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BC742B-E5D3-4D6A-BCA6-AB235AF86A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="816" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4185" windowWidth="21600" windowHeight="11295" tabRatio="816" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" state="hidden" r:id="rId1"/>
@@ -2455,8 +2455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2620,8 +2620,8 @@
   </sheetPr>
   <dimension ref="B2:I197"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/case_study/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
+++ b/case_study/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaFullstack\Module 3\C0723L1_JV105_Module3\case_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BC742B-E5D3-4D6A-BCA6-AB235AF86A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DDEB92-6DFA-476B-8B59-63E74A5E4458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4185" windowWidth="21600" windowHeight="11295" tabRatio="816" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="816" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" state="hidden" r:id="rId1"/>
@@ -2620,8 +2620,8 @@
   </sheetPr>
   <dimension ref="B2:I197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
